--- a/qins_moon/res/tables/test/core/politics.xlsx
+++ b/qins_moon/res/tables/test/core/politics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28451" windowHeight="11831" tabRatio="954" firstSheet="1" activeTab="18"/>
+    <workbookView windowWidth="28451" windowHeight="8904" tabRatio="954" firstSheet="4" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="TerrainTerrain" sheetId="2" r:id="rId1"/>
@@ -15,25 +15,28 @@
     <sheet name="Eye" sheetId="6" r:id="rId5"/>
     <sheet name="Traffic" sheetId="1" r:id="rId6"/>
     <sheet name="Decoration" sheetId="7" r:id="rId7"/>
-    <sheet name="MoveProperty" sheetId="8" r:id="rId8"/>
-    <sheet name="BattleProperty" sheetId="9" r:id="rId9"/>
-    <sheet name="Military" sheetId="10" r:id="rId10"/>
-    <sheet name="TerrainAttack" sheetId="11" r:id="rId11"/>
-    <sheet name="TerrainDefense" sheetId="12" r:id="rId12"/>
-    <sheet name="AtkDefDict" sheetId="13" r:id="rId13"/>
-    <sheet name="CityLevel" sheetId="14" r:id="rId14"/>
-    <sheet name="NamesList" sheetId="15" r:id="rId15"/>
-    <sheet name="Goods" sheetId="16" r:id="rId16"/>
-    <sheet name="Building" sheetId="17" r:id="rId17"/>
-    <sheet name="General" sheetId="18" r:id="rId18"/>
-    <sheet name="Ferry" sheetId="19" r:id="rId19"/>
+    <sheet name="ViewProperty" sheetId="20" r:id="rId8"/>
+    <sheet name="MoveProperty" sheetId="8" r:id="rId9"/>
+    <sheet name="BattleProperty" sheetId="9" r:id="rId10"/>
+    <sheet name="Military" sheetId="10" r:id="rId11"/>
+    <sheet name="TerrainAttack" sheetId="11" r:id="rId12"/>
+    <sheet name="TerrainDefense" sheetId="12" r:id="rId13"/>
+    <sheet name="AtkDefDict" sheetId="13" r:id="rId14"/>
+    <sheet name="CityLevel" sheetId="14" r:id="rId15"/>
+    <sheet name="NamesList" sheetId="15" r:id="rId16"/>
+    <sheet name="Goods" sheetId="16" r:id="rId17"/>
+    <sheet name="Building" sheetId="17" r:id="rId18"/>
+    <sheet name="General" sheetId="18" r:id="rId19"/>
+    <sheet name="Ferry" sheetId="19" r:id="rId20"/>
+    <sheet name="GroupAI" sheetId="21" r:id="rId21"/>
+    <sheet name="TroopLevel" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="164">
   <si>
     <t>e</t>
   </si>
@@ -182,6 +185,15 @@
     <t>decoration.tree</t>
   </si>
   <si>
+    <t>eyeType</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>engineType</t>
   </si>
   <si>
@@ -191,9 +203,6 @@
     <t>maxOil</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
     <t>bloodValue</t>
   </si>
   <si>
@@ -251,135 +260,156 @@
     <t>默认</t>
   </si>
   <si>
+    <t>costBill</t>
+  </si>
+  <si>
+    <t>costPerBout</t>
+  </si>
+  <si>
+    <t>moveProperty</t>
+  </si>
+  <si>
+    <t>viewProperty</t>
+  </si>
+  <si>
+    <t>battleProperty</t>
+  </si>
+  <si>
+    <t>population</t>
+  </si>
+  <si>
+    <t>tank</t>
+  </si>
+  <si>
+    <t>坦克</t>
+  </si>
+  <si>
+    <t>unit.tank</t>
+  </si>
+  <si>
+    <t>katyusha</t>
+  </si>
+  <si>
+    <t>火箭炮</t>
+  </si>
+  <si>
+    <t>unit.katyusha</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>tableType</t>
+  </si>
+  <si>
+    <t>dict</t>
+  </si>
+  <si>
+    <t>__</t>
+  </si>
+  <si>
+    <t>gdp</t>
+  </si>
+  <si>
+    <t>maxPayPerBout</t>
+  </si>
+  <si>
+    <t>wallArmor</t>
+  </si>
+  <si>
+    <t>canBuild</t>
+  </si>
+  <si>
+    <t>areaSize</t>
+  </si>
+  <si>
+    <t>town</t>
+  </si>
+  <si>
+    <t>镇</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1, 1]</t>
+  </si>
+  <si>
+    <t>factory</t>
+  </si>
+  <si>
+    <t>工业区</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>都市</t>
+  </si>
+  <si>
+    <t>names</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
     <t>madeFrom</t>
   </si>
   <si>
+    <t>laborer</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>soldier</t>
+  </si>
+  <si>
+    <t>engineer</t>
+  </si>
+  <si>
+    <t>bill</t>
+  </si>
+  <si>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>grain</t>
+  </si>
+  <si>
+    <t>livestock</t>
+  </si>
+  <si>
+    <t>iron</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>{"grain": 1, "livestock": 1}</t>
+  </si>
+  <si>
+    <t>goods</t>
+  </si>
+  <si>
+    <t>{"iron": 1, "wood": 1}</t>
+  </si>
+  <si>
+    <t>{"iron": 10, "wood": 5}</t>
+  </si>
+  <si>
+    <t>{"iron": 5, "wood": 3}</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
     <t>costPerTick</t>
   </si>
   <si>
-    <t>battleProperty</t>
-  </si>
-  <si>
-    <t>tank</t>
-  </si>
-  <si>
-    <t>坦克</t>
-  </si>
-  <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <t>unit.tank</t>
-  </si>
-  <si>
-    <t>katyusha</t>
-  </si>
-  <si>
-    <t>火箭炮</t>
-  </si>
-  <si>
-    <t>unit.katyusha</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>tableType</t>
-  </si>
-  <si>
-    <t>dict</t>
-  </si>
-  <si>
-    <t>__</t>
-  </si>
-  <si>
-    <t>population</t>
-  </si>
-  <si>
-    <t>maxBlockNu</t>
-  </si>
-  <si>
-    <t>areaSize</t>
-  </si>
-  <si>
-    <t>baseFightingCapacity</t>
-  </si>
-  <si>
-    <t>town</t>
-  </si>
-  <si>
-    <t>镇</t>
-  </si>
-  <si>
-    <t>[1,1]</t>
-  </si>
-  <si>
-    <t>factory</t>
-  </si>
-  <si>
-    <t>工业区</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>都市</t>
-  </si>
-  <si>
-    <t>names</t>
-  </si>
-  <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>laborer</t>
-  </si>
-  <si>
-    <t>soldier</t>
-  </si>
-  <si>
-    <t>engineer</t>
-  </si>
-  <si>
-    <t>bill</t>
-  </si>
-  <si>
-    <t>wood</t>
-  </si>
-  <si>
-    <t>grain</t>
-  </si>
-  <si>
-    <t>livestock</t>
-  </si>
-  <si>
-    <t>iron</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>{"grain": 1, "livestock": 1}</t>
-  </si>
-  <si>
-    <t>goods</t>
-  </si>
-  <si>
-    <t>{"iron": 1, "wood": 1}</t>
-  </si>
-  <si>
-    <t>{"iron": 10, "wood": 5}</t>
-  </si>
-  <si>
-    <t>{"iron": 5, "wood": 3}</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
     <t>isSingleBuilding</t>
   </si>
   <si>
@@ -461,25 +491,61 @@
     <t>troopModelName</t>
   </si>
   <si>
-    <t>teamModelName</t>
+    <t>maxPopulationInTroop</t>
+  </si>
+  <si>
+    <t>cityFreezeBouts</t>
+  </si>
+  <si>
+    <t>personCostPerBout</t>
+  </si>
+  <si>
+    <t>refreshMaxGovernTroopNuBouts</t>
+  </si>
+  <si>
+    <t>maxGovernTroopNu</t>
+  </si>
+  <si>
+    <t>conveyBoutsPerDistance</t>
+  </si>
+  <si>
+    <t>costScaleWhenUnActed</t>
+  </si>
+  <si>
+    <t>maxSupplyTroopRate</t>
+  </si>
+  <si>
+    <t>costMoneyPerTick</t>
   </si>
   <si>
     <t>unit.lufy</t>
   </si>
   <si>
-    <t>ferryModelName</t>
-  </si>
-  <si>
-    <t>unit.clow</t>
-  </si>
-  <si>
-    <t>goldGoods</t>
-  </si>
-  <si>
-    <t>costMoneyPerTick</t>
-  </si>
-  <si>
-    <t>moveProperty</t>
+    <t>attackViewDistance</t>
+  </si>
+  <si>
+    <t>maxWaitActionBouts</t>
+  </si>
+  <si>
+    <t>maxAttackBouts</t>
+  </si>
+  <si>
+    <t>minAttackTroopNu</t>
+  </si>
+  <si>
+    <t>billMakeNewTroop</t>
+  </si>
+  <si>
+    <t>troopLevels</t>
+  </si>
+  <si>
+    <t>["normal"]</t>
+  </si>
+  <si>
+    <t>distribution</t>
+  </si>
+  <si>
+    <t>{"tank": 3}</t>
   </si>
 </sst>
 </file>
@@ -487,13 +553,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -518,64 +584,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -589,14 +612,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -620,23 +673,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -650,8 +687,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -660,14 +729,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -682,19 +743,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,13 +815,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,7 +833,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,19 +893,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,103 +923,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -880,7 +941,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -900,26 +961,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -942,8 +988,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -963,6 +1009,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -976,143 +1037,146 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
@@ -1454,400 +1518,400 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.537037037037" defaultRowHeight="13.2" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="16.9907407407407" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1481481481481" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.9444444444444" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.9907407407407" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.1481481481481" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.9444444444444" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="3" t="str">
         <f t="shared" ref="C6:C19" si="0">B6</f>
         <v>water-sea</v>
       </c>
-      <c r="D6" s="6" t="b">
+      <c r="D6" s="7" t="b">
         <f t="shared" ref="D6:D19" si="1">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E6" s="2" t="str">
+      <c r="E6" s="3" t="str">
         <f t="shared" ref="E6:E19" si="2">"terrain."&amp;B6</f>
         <v>terrain.water-sea</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="C7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>water-shallow</v>
       </c>
-      <c r="D7" s="6" t="b">
+      <c r="D7" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E7" s="2" t="str">
+      <c r="E7" s="3" t="str">
         <f t="shared" si="2"/>
         <v>terrain.water-shallow</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2" t="str">
+      <c r="C8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>plain-desert</v>
       </c>
-      <c r="D8" s="6" t="b">
+      <c r="D8" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E8" s="2" t="str">
+      <c r="E8" s="3" t="str">
         <f t="shared" si="2"/>
         <v>terrain.plain-desert</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="2" t="str">
+      <c r="C9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>plain-frost</v>
       </c>
-      <c r="D9" s="6" t="b">
+      <c r="D9" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E9" s="2" t="str">
+      <c r="E9" s="3" t="str">
         <f t="shared" si="2"/>
         <v>terrain.plain-frost</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="2" t="str">
+      <c r="C10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>plain-prairie</v>
       </c>
-      <c r="D10" s="6" t="b">
+      <c r="D10" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E10" s="2" t="str">
+      <c r="E10" s="3" t="str">
         <f t="shared" si="2"/>
         <v>terrain.plain-prairie</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="2" t="str">
+      <c r="C11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>plain-plain</v>
       </c>
-      <c r="D11" s="6" t="b">
+      <c r="D11" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E11" s="2" t="str">
+      <c r="E11" s="3" t="str">
         <f t="shared" si="2"/>
         <v>terrain.plain-plain</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="2" t="str">
+      <c r="C12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>hill-desert</v>
       </c>
-      <c r="D12" s="6" t="b">
+      <c r="D12" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E12" s="2" t="str">
+      <c r="E12" s="3" t="str">
         <f t="shared" si="2"/>
         <v>terrain.hill-desert</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="2" t="str">
+      <c r="C13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>hill-frost</v>
       </c>
-      <c r="D13" s="6" t="b">
+      <c r="D13" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E13" s="2" t="str">
+      <c r="E13" s="3" t="str">
         <f t="shared" si="2"/>
         <v>terrain.hill-frost</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>10</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="2" t="str">
+      <c r="C14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>hill-prairie</v>
       </c>
-      <c r="D14" s="6" t="b">
+      <c r="D14" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E14" s="2" t="str">
+      <c r="E14" s="3" t="str">
         <f t="shared" si="2"/>
         <v>terrain.hill-prairie</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>11</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="2" t="str">
+      <c r="C15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>hill-plain</v>
       </c>
-      <c r="D15" s="6" t="b">
+      <c r="D15" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E15" s="2" t="str">
+      <c r="E15" s="3" t="str">
         <f t="shared" si="2"/>
         <v>terrain.hill-plain</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>12</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="2" t="str">
+      <c r="C16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>mountain-desert</v>
       </c>
-      <c r="D16" s="6" t="b">
+      <c r="D16" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E16" s="2" t="str">
+      <c r="E16" s="3" t="str">
         <f t="shared" si="2"/>
         <v>terrain.mountain-desert</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>13</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="2" t="str">
+      <c r="C17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>mountain-frost</v>
       </c>
-      <c r="D17" s="6" t="b">
+      <c r="D17" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E17" s="2" t="str">
+      <c r="E17" s="3" t="str">
         <f t="shared" si="2"/>
         <v>terrain.mountain-frost</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>14</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="2" t="str">
+      <c r="C18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>mountain-prairie</v>
       </c>
-      <c r="D18" s="6" t="b">
+      <c r="D18" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E18" s="2" t="str">
+      <c r="E18" s="3" t="str">
         <f t="shared" si="2"/>
         <v>terrain.mountain-prairie</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>15</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="2" t="str">
+      <c r="C19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>mountain-plain</v>
       </c>
-      <c r="D19" s="6" t="b">
+      <c r="D19" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E19" s="2" t="str">
+      <c r="E19" s="3" t="str">
         <f t="shared" si="2"/>
         <v>terrain.mountain-plain</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1864,110 +1928,277 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A5:I8"/>
+  <dimension ref="A5:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.537037037037" defaultRowHeight="13.2" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="11.537037037037" defaultRowHeight="13.2"/>
   <cols>
-    <col min="5" max="5" width="12.787037037037" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.462962962963" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.212962962963" style="2" customWidth="1"/>
+    <col min="11" max="11" width="17.1481481481481" style="2" customWidth="1"/>
+    <col min="13" max="13" width="17.1481481481481" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:14">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:13">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="3">
+        <v>2</v>
+      </c>
+      <c r="J6" s="9" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>2</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:13">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2</v>
+      </c>
+      <c r="J7" s="9" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>2</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:13">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="D8" s="7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>11</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2</v>
+      </c>
+      <c r="J8" s="9" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:13">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" ht="15" spans="1:9">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="1">
-        <v>100</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="1">
-        <v>100</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" ht="15" spans="1:9">
-      <c r="A7" s="1">
+      <c r="D9" s="7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="1">
-        <v>100</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" ht="15" spans="1:4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="1"/>
+      <c r="J9" s="9" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="1:12">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" ht="15" spans="1:12">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" ht="15" spans="1:12">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1982,15 +2213,19 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A5:D14"/>
+  <dimension ref="A5:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.537037037037" defaultRowHeight="13.2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11.537037037037" defaultRowHeight="13.2" outlineLevelRow="7"/>
+  <cols>
+    <col min="5" max="5" width="12.787037037037" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.75" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -2000,123 +2235,97 @@
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:10">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="G6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:10">
       <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="str">
-        <f t="shared" ref="C7:C12" si="0">B7</f>
-        <v>sea</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>water</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>plain</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2">
-        <v>5</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>mountain</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2">
-        <v>6</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>forest</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2">
-        <v>7</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>building</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="B7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2131,161 +2340,141 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A5:D18"/>
+  <dimension ref="A5:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.537037037037" defaultRowHeight="13.2" outlineLevelCol="3"/>
   <sheetData>
     <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>76</v>
+      <c r="D5" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="C7" s="3" t="str">
         <f t="shared" ref="C7:C12" si="0">B7</f>
         <v>sea</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2" t="str">
+      <c r="C8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>water</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="2" t="str">
+      <c r="C9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>plain</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="2" t="str">
+      <c r="C10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>mountain</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="2" t="str">
+      <c r="C11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>forest</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="2" t="str">
+      <c r="C12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>building</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2300,39 +2489,161 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A5:D18"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.537037037037" defaultRowHeight="13.2" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="11.537037037037" defaultRowHeight="13.2" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="str">
+        <f t="shared" ref="C7:C12" si="0">B7</f>
+        <v>sea</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>water</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>plain</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>mountain</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>forest</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>building</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2347,154 +2658,39 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A4:N8"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.537037037037" defaultRowHeight="13.2" outlineLevelRow="7"/>
-  <cols>
-    <col min="5" max="5" width="17.9444444444444" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.8796296296296" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.212962962963" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.2685185185185" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.712962962963" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.0740740740741" style="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.537037037037" defaultRowHeight="13.2" outlineLevelRow="5" outlineLevelCol="1"/>
   <sheetData>
-    <row r="4" ht="15" spans="10:10">
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" s="1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="1" t="s">
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H5" s="1" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" ht="15" spans="1:14">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>10000</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" ht="15" spans="1:14">
-      <c r="A7" s="1">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>10001</v>
-      </c>
-      <c r="F7" s="1">
-        <v>3</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" ht="15" spans="1:14">
-      <c r="A8" s="1">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="1" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>10002</v>
-      </c>
-      <c r="F8" s="1">
-        <v>4</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="B5" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2509,23 +2705,162 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A4:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.537037037037" defaultRowHeight="13.2" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="11.537037037037" defaultRowHeight="13.2" outlineLevelRow="7"/>
+  <cols>
+    <col min="5" max="5" width="17.9444444444444" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.8796296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.212962962963" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.2685185185185" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.712962962963" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.0740740740741" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+    <row r="4" ht="15" spans="10:10">
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" ht="15" spans="1:14">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F6" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G6" s="2">
+        <v>90</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>91</v>
       </c>
+      <c r="I6" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" ht="15" spans="1:14">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F7" s="2">
+        <v>10000</v>
+      </c>
+      <c r="G7" s="2">
+        <v>90</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" ht="15" spans="1:14">
+      <c r="A8" s="2">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10001</v>
+      </c>
+      <c r="F8" s="2">
+        <v>10001</v>
+      </c>
+      <c r="G8" s="2">
+        <v>90</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2540,275 +2875,22 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A5:G17"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.537037037037" defaultRowHeight="13.2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="11.537037037037" defaultRowHeight="13.2" outlineLevelRow="1"/>
   <sheetData>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16">
-        <v>10</v>
-      </c>
-      <c r="E16">
-        <v>100</v>
-      </c>
-      <c r="F16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17">
-        <v>4</v>
-      </c>
-      <c r="E17">
-        <v>80</v>
-      </c>
-      <c r="F17" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2822,6 +2904,290 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A5:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.537037037037" defaultRowHeight="13.2" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>100</v>
+      </c>
+      <c r="F16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>80</v>
+      </c>
+      <c r="F17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A5:L12"/>
@@ -2836,41 +3202,41 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:12">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="D5" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>113</v>
+      <c r="G5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2878,19 +3244,19 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="G6" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -2913,19 +3279,19 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -2948,19 +3314,19 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -2983,19 +3349,19 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C9" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -3018,19 +3384,19 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -3053,19 +3419,19 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C11" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -3088,19 +3454,19 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="D12" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="G12" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -3116,106 +3482,6 @@
       </c>
       <c r="L12">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.537037037037" defaultRowHeight="13.2" outlineLevelCol="3"/>
-  <cols>
-    <col min="2" max="2" width="24.8888888888889" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.0555555555556" style="1" customWidth="1"/>
-    <col min="4" max="4" width="42.4074074074074" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="3:4">
-      <c r="C5" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4">
-      <c r="C6" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="3:4">
-      <c r="C7" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="3:4">
-      <c r="C8" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="3:4">
-      <c r="C9" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4">
-      <c r="C10" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4">
-      <c r="C11" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="3:4">
-      <c r="C12" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3231,68 +3497,140 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A5:G6"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="11.537037037037" defaultRowHeight="13.2" outlineLevelCol="3"/>
   <cols>
-    <col min="4" max="4" width="10.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="16.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="12.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="24.8888888888889" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.0555555555556" style="2" customWidth="1"/>
+    <col min="4" max="4" width="42.4074074074074" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="C5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="C6" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="C7" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
+      <c r="C8" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4">
+      <c r="C9" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="C10" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
+      <c r="C11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="C12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4">
+      <c r="C13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4">
+      <c r="C14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4">
+      <c r="C15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4">
+      <c r="C16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" s="2">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" t="s">
-        <v>141</v>
-      </c>
-      <c r="F5" t="s">
-        <v>142</v>
-      </c>
-      <c r="G5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" t="s">
-        <v>137</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -3308,153 +3646,153 @@
   <sheetFormatPr defaultColWidth="11.537037037037" defaultRowHeight="13.2" outlineLevelCol="5"/>
   <sheetData>
     <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="6" t="b">
+      <c r="D6" s="7" t="b">
         <f t="shared" ref="D6:D13" si="0">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="C7" s="3" t="str">
         <f t="shared" ref="C7:C12" si="1">B7</f>
         <v>sea</v>
       </c>
-      <c r="D7" s="6" t="b">
+      <c r="D7" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2" t="str">
+      <c r="C8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>water</v>
       </c>
-      <c r="D8" s="6" t="b">
+      <c r="D8" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="2" t="str">
+      <c r="C9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>plain</v>
       </c>
-      <c r="D9" s="6" t="b">
+      <c r="D9" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="2" t="str">
+      <c r="C10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>mountain</v>
       </c>
-      <c r="D10" s="6" t="b">
+      <c r="D10" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="2" t="str">
+      <c r="C11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>forest</v>
       </c>
-      <c r="D11" s="6" t="b">
+      <c r="D11" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="2" t="str">
+      <c r="C12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>building</v>
       </c>
-      <c r="D12" s="6" t="b">
+      <c r="D12" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>8</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="6" t="b">
+      <c r="D13" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3466,6 +3804,206 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A5:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="5" outlineLevelCol="6"/>
+  <cols>
+    <col min="4" max="4" width="10.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="16.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="12.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A5:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="5"/>
+  <cols>
+    <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
+    <col min="4" max="4" width="18.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="17.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="14.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="16.7777777777778" customWidth="1"/>
+    <col min="8" max="8" width="15.2222222222222" customWidth="1"/>
+    <col min="9" max="9" width="15.5555555555556" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" t="s">
+        <v>158</v>
+      </c>
+      <c r="H5" t="s">
+        <v>159</v>
+      </c>
+      <c r="I5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A5:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="5" outlineLevelCol="3"/>
+  <cols>
+    <col min="4" max="4" width="9.44444444444444" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -3480,83 +4018,83 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.537037037037" defaultRowHeight="13.2" outlineLevelCol="5"/>
   <cols>
-    <col min="5" max="5" width="32.4074074074074" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.3425925925926" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.4074074074074" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25.3425925925926" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="5:5">
-      <c r="E3" s="1"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" ht="19.9" customHeight="1" spans="5:5">
-      <c r="E4" s="1"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" ht="18.2" customHeight="1" spans="1:6">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" ht="118.55" customHeight="1" spans="1:6">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="6" t="b">
+      <c r="D6" s="7" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" ht="132" spans="1:6">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="6" t="b">
+      <c r="D7" s="7" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="5:5">
-      <c r="E8" s="1"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3580,111 +4118,111 @@
   <sheetFormatPr defaultColWidth="11.537037037037" defaultRowHeight="13.2" outlineLevelCol="3"/>
   <sheetData>
     <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="3" t="str">
         <f t="shared" ref="C6:C11" si="0">B6</f>
         <v>sea</v>
       </c>
-      <c r="D6" s="6" t="b">
+      <c r="D6" s="7" t="b">
         <f t="shared" ref="D6:D11" si="1">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="C7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>water</v>
       </c>
-      <c r="D7" s="6" t="b">
+      <c r="D7" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2" t="str">
+      <c r="C8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>plain</v>
       </c>
-      <c r="D8" s="6" t="b">
+      <c r="D8" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="2" t="str">
+      <c r="C9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>mountain</v>
       </c>
-      <c r="D9" s="6" t="b">
+      <c r="D9" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="2" t="str">
+      <c r="C10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>forest</v>
       </c>
-      <c r="D10" s="6" t="b">
+      <c r="D10" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="2" t="str">
+      <c r="C11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>building</v>
       </c>
-      <c r="D11" s="6" t="b">
+      <c r="D11" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3705,58 +4243,58 @@
   <dimension ref="A4:E7"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.537037037037" defaultRowHeight="13.2" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="5" max="5" width="24.3333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.3333333333333" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" ht="19.9" customHeight="1"/>
     <row r="5" ht="18.2" customHeight="1" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" ht="132" spans="1:5">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" ht="132" spans="1:5">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="C7" s="3" t="str">
         <f>B7</f>
         <v>vehical</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="11" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3782,13 +4320,13 @@
   <sheetFormatPr defaultColWidth="11.537037037037" defaultRowHeight="13.2" outlineLevelRow="5" outlineLevelCol="4"/>
   <sheetData>
     <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
@@ -3805,7 +4343,7 @@
       <c r="B6" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D6" t="s">
@@ -3837,30 +4375,30 @@
   <sheetFormatPr defaultColWidth="11.537037037037" defaultRowHeight="13.2" outlineLevelRow="5" outlineLevelCol="3"/>
   <sheetData>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3877,345 +4415,118 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A5:G6"/>
+  <dimension ref="A5:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.537037037037" defaultRowHeight="13.2" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="5" outlineLevelCol="5"/>
   <sheetData>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="6" t="b">
+      <c r="C6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="7" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
         <v>7</v>
       </c>
-      <c r="G6" s="1">
-        <v>99</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A5:N12"/>
+  <dimension ref="A5:G6"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.537037037037" defaultRowHeight="13.2"/>
-  <cols>
-    <col min="7" max="7" width="14.462962962963" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.212962962963" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.1481481481481" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.1481481481481" style="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.537037037037" defaultRowHeight="13.2" outlineLevelRow="5" outlineLevelCol="6"/>
   <sheetData>
-    <row r="5" spans="1:14">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" ht="15" spans="1:13">
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="6" t="b">
+        <v>45</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="7" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E6" s="2">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>59</v>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2">
+        <v>7</v>
       </c>
       <c r="G6" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" s="2">
-        <v>2</v>
-      </c>
-      <c r="J6" s="8" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>2</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" ht="15" spans="1:13">
-      <c r="A7" s="2">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" s="2">
-        <v>2</v>
-      </c>
-      <c r="J7" s="8" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>2</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" ht="15" spans="1:13">
-      <c r="A8" s="2">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>11</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8" s="2">
-        <v>2</v>
-      </c>
-      <c r="J8" s="8" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>3</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" ht="15" spans="1:13">
-      <c r="A9" s="2">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>12</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="2">
-        <v>2</v>
-      </c>
-      <c r="J9" s="8" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>4</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" ht="15" spans="1:12">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" ht="15" spans="1:12">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" ht="15" spans="1:12">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/qins_moon/res/tables/test/core/politics.xlsx
+++ b/qins_moon/res/tables/test/core/politics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28451" windowHeight="8904" tabRatio="954" firstSheet="4" activeTab="20"/>
+    <workbookView windowWidth="21431" windowHeight="11268" tabRatio="954"/>
   </bookViews>
   <sheets>
     <sheet name="TerrainTerrain" sheetId="2" r:id="rId1"/>
@@ -553,11 +553,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -583,35 +583,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -620,9 +591,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -635,84 +614,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -728,9 +632,105 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -743,49 +743,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,19 +755,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,7 +791,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,13 +833,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,73 +911,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,11 +937,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -961,11 +978,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -994,42 +1017,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1038,137 +1038,137 @@
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1512,8 +1512,8 @@
   <sheetPr/>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.537037037037" defaultRowHeight="13.2" outlineLevelCol="6"/>
@@ -2661,7 +2661,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.537037037037" defaultRowHeight="13.2" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -2878,7 +2878,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.537037037037" defaultRowHeight="13.2" outlineLevelRow="1"/>
@@ -3193,7 +3193,7 @@
   <dimension ref="A5:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.537037037037" defaultRowHeight="13.2"/>
@@ -3500,7 +3500,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:D17"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.537037037037" defaultRowHeight="13.2" outlineLevelCol="3"/>
@@ -3880,7 +3880,7 @@
   <sheetPr/>
   <dimension ref="A5:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -3965,7 +3965,7 @@
   <dimension ref="A5:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="5" outlineLevelCol="3"/>
